--- a/教师/account.xlsx
+++ b/教师/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>username</t>
   </si>
@@ -761,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,6 +782,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,7 +1118,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1479,10 +1486,10 @@
     </row>
     <row r="22" ht="14.25" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="6">
-        <v>19991032897</v>
+        <v>27</v>
+      </c>
+      <c r="B22" s="7">
+        <v>15929216190</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -1491,15 +1498,15 @@
         <v>7</v>
       </c>
       <c r="E22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="7">
-        <v>15929216190</v>
+        <v>13609219292</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
@@ -1508,15 +1515,15 @@
         <v>7</v>
       </c>
       <c r="E23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="7">
-        <v>13609219292</v>
+        <v>13149231630</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -1525,15 +1532,15 @@
         <v>7</v>
       </c>
       <c r="E24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="7">
-        <v>13149231630</v>
+        <v>30</v>
+      </c>
+      <c r="B25" s="6">
+        <v>15802979167</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
@@ -1542,15 +1549,15 @@
         <v>7</v>
       </c>
       <c r="E25" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="6">
-        <v>15802979167</v>
+        <v>31</v>
+      </c>
+      <c r="B26" s="7">
+        <v>13235923920</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>6</v>
@@ -1559,97 +1566,70 @@
         <v>7</v>
       </c>
       <c r="E26" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="7">
-        <v>13235923920</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7">
-        <v>15929216190</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1">
-        <v>27</v>
-      </c>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="8"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="8"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/教师/account.xlsx
+++ b/教师/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="10440"/>
+    <workbookView windowWidth="19890" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="teacher" sheetId="7" r:id="rId1"/>
@@ -31,85 +31,85 @@
     <t>signIn</t>
   </si>
   <si>
+    <t>薛钰茜</t>
+  </si>
+  <si>
+    <t>Hopu123456</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>袁佳</t>
+  </si>
+  <si>
+    <t>蔡珍</t>
+  </si>
+  <si>
+    <t>贺建妮</t>
+  </si>
+  <si>
+    <t>任水鱼</t>
+  </si>
+  <si>
+    <t>郭晶</t>
+  </si>
+  <si>
+    <t>李梦圆</t>
+  </si>
+  <si>
+    <t>李谋</t>
+  </si>
+  <si>
+    <t>常儒家</t>
+  </si>
+  <si>
+    <t>孙黎明</t>
+  </si>
+  <si>
+    <t>段帅超</t>
+  </si>
+  <si>
+    <t>杜莉莉</t>
+  </si>
+  <si>
+    <t>唐娟</t>
+  </si>
+  <si>
+    <t>苏鹏</t>
+  </si>
+  <si>
+    <t>张灵</t>
+  </si>
+  <si>
+    <t>李航</t>
+  </si>
+  <si>
+    <t>陈轩昭</t>
+  </si>
+  <si>
+    <t>许宁</t>
+  </si>
+  <si>
+    <t>苏怡</t>
+  </si>
+  <si>
+    <t>王静</t>
+  </si>
+  <si>
+    <t>魏姗</t>
+  </si>
+  <si>
+    <t>袁首</t>
+  </si>
+  <si>
+    <t>王雪娇</t>
+  </si>
+  <si>
+    <t>张婷</t>
+  </si>
+  <si>
     <t>王小哲</t>
-  </si>
-  <si>
-    <t>Hopu123456</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>袁佳</t>
-  </si>
-  <si>
-    <t>蔡珍</t>
-  </si>
-  <si>
-    <t>贺建妮</t>
-  </si>
-  <si>
-    <t>任水鱼</t>
-  </si>
-  <si>
-    <t>郭晶</t>
-  </si>
-  <si>
-    <t>李梦圆</t>
-  </si>
-  <si>
-    <t>李谋</t>
-  </si>
-  <si>
-    <t>常儒家</t>
-  </si>
-  <si>
-    <t>孙黎明</t>
-  </si>
-  <si>
-    <t>段帅超</t>
-  </si>
-  <si>
-    <t>杜莉莉</t>
-  </si>
-  <si>
-    <t>唐娟</t>
-  </si>
-  <si>
-    <t>苏鹏</t>
-  </si>
-  <si>
-    <t>张灵</t>
-  </si>
-  <si>
-    <t>李航</t>
-  </si>
-  <si>
-    <t>陈轩昭</t>
-  </si>
-  <si>
-    <t>许宁</t>
-  </si>
-  <si>
-    <t>苏怡</t>
-  </si>
-  <si>
-    <t>王静</t>
-  </si>
-  <si>
-    <t>魏姗</t>
-  </si>
-  <si>
-    <t>袁首</t>
-  </si>
-  <si>
-    <t>王雪娇</t>
-  </si>
-  <si>
-    <t>张婷</t>
-  </si>
-  <si>
-    <t>薛钰茜</t>
   </si>
 </sst>
 </file>
@@ -117,11 +117,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -130,6 +130,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -145,28 +151,77 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,47 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +251,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -241,55 +273,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,187 +304,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,6 +513,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -523,50 +538,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -589,6 +569,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -597,16 +588,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,140 +628,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,23 +769,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1118,7 +1121,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1144,14 +1147,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>18392388392</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>13235923920</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1168,7 +1171,7 @@
       <c r="B3" s="5">
         <v>18082539819</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1185,7 +1188,7 @@
       <c r="B4" s="5">
         <v>18092036614</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1199,10 +1202,10 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>19991032897</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1216,10 +1219,10 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>15191979767</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1233,10 +1236,10 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>15591096998</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1250,10 +1253,10 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>18761169831</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1267,10 +1270,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>13892945529</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1284,10 +1287,10 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>15129259315</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1301,10 +1304,10 @@
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>13571091806</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1318,10 +1321,10 @@
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>15029923687</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1335,10 +1338,10 @@
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>17629280193</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1352,10 +1355,10 @@
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>15009188128</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1369,10 +1372,10 @@
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>15291079697</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1386,10 +1389,10 @@
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>15829246819</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1403,10 +1406,10 @@
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>18291003159</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1420,10 +1423,10 @@
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="3">
         <v>17391642337</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1437,10 +1440,10 @@
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="3">
         <v>13279269802</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1454,10 +1457,10 @@
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="7">
         <v>18791025250</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1471,10 +1474,10 @@
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="3">
         <v>13891061882</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1484,14 +1487,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:5">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="7">
-        <v>15929216190</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="8">
+        <v>17789177606</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1505,10 +1508,10 @@
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="3">
         <v>13609219292</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1522,10 +1525,10 @@
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="3">
         <v>13149231630</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1539,10 +1542,10 @@
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="7">
         <v>15802979167</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1552,14 +1555,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:5">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="7">
-        <v>13235923920</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="6">
+        <v>18392388392</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1570,66 +1573,62 @@
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="11"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
